--- a/router/exportFiles/corp_info.xlsx
+++ b/router/exportFiles/corp_info.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,25 +420,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="B2" t="str">
-        <v>明光牛奶</v>
+        <v>MaYiJingFu</v>
       </c>
       <c r="C2" t="str">
-        <v>623351210000282713</v>
+        <v>622345162512433147</v>
       </c>
       <c r="D2" t="str">
-        <v>刘新华</v>
+        <v>LiuShuxuan</v>
       </c>
       <c r="E2" t="str">
-        <v>13616275822</v>
+        <v>13616275818</v>
       </c>
       <c r="F2" t="str">
-        <v>1234213324@qq.com</v>
+        <v>1246780635@qq.com</v>
       </c>
       <c r="G2" t="str">
-        <v>财务科主任</v>
+        <v>Caiwuzongjian</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -447,36 +447,36 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>食品</v>
+        <v>jinrong</v>
       </c>
       <c r="K2" t="str">
-        <v>江苏省苏州市金鸡湖大道38号</v>
+        <v>Donghuan Street</v>
       </c>
       <c r="L2">
-        <v>10000001</v>
+        <v>12345678</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>12345</v>
+        <v>A00001</v>
       </c>
       <c r="B3" t="str">
-        <v>MaYiJingFu</v>
+        <v>明光牛奶</v>
       </c>
       <c r="C3" t="str">
-        <v>622345162512433147</v>
+        <v>623351210000282713</v>
       </c>
       <c r="D3" t="str">
-        <v>LiuShuxuan</v>
+        <v>刘新华</v>
       </c>
       <c r="E3" t="str">
-        <v>13616275818</v>
+        <v>13616275822</v>
       </c>
       <c r="F3" t="str">
-        <v>1246780635@qq.com</v>
+        <v>1234213324@qq.com</v>
       </c>
       <c r="G3" t="str">
-        <v>Caiwuzongjian</v>
+        <v>财务科主任</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -485,33 +485,33 @@
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v>jinrong</v>
+        <v>食品</v>
       </c>
       <c r="K3" t="str">
-        <v>Donghuan Street</v>
+        <v>江苏省苏州市金鸡湖大道38号</v>
       </c>
       <c r="L3">
-        <v>12345678</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>78981</v>
+        <v>A00002</v>
       </c>
       <c r="B4" t="str">
-        <v>阿里巴巴</v>
+        <v>美琳服饰</v>
       </c>
       <c r="C4" t="str">
-        <v>623351210000282713</v>
+        <v>623351210000282714</v>
       </c>
       <c r="D4" t="str">
-        <v>马程鹏</v>
+        <v>权梦旋</v>
       </c>
       <c r="E4" t="str">
-        <v>13616275822</v>
+        <v>13616275823</v>
       </c>
       <c r="F4" t="str">
-        <v>1234213324@qq.com</v>
+        <v>1234213325@qq.com</v>
       </c>
       <c r="G4" t="str">
         <v>财务科主任</v>
@@ -523,33 +523,33 @@
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <v>食品</v>
+        <v>服饰</v>
       </c>
       <c r="K4" t="str">
-        <v>江苏省苏州市金鸡湖大道38号</v>
+        <v>江苏省苏州市金鸡湖大道39号</v>
       </c>
       <c r="L4">
-        <v>10000001</v>
+        <v>10000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>8981</v>
+        <v>A00003</v>
       </c>
       <c r="B5" t="str">
-        <v>牛奶</v>
+        <v>齐彤电力</v>
       </c>
       <c r="C5" t="str">
-        <v>623351210000282713</v>
+        <v>623351210000282715</v>
       </c>
       <c r="D5" t="str">
-        <v>马程鹏</v>
+        <v>段绿凝</v>
       </c>
       <c r="E5" t="str">
-        <v>13616275822</v>
+        <v>13616275824</v>
       </c>
       <c r="F5" t="str">
-        <v>1234213324@qq.com</v>
+        <v>1234213326@qq.com</v>
       </c>
       <c r="G5" t="str">
         <v>财务科主任</v>
@@ -561,18 +561,132 @@
         <v>0</v>
       </c>
       <c r="J5" t="str">
-        <v>食品</v>
+        <v>电力</v>
       </c>
       <c r="K5" t="str">
-        <v>江苏省苏州市金鸡湖大道38号</v>
+        <v>江苏省苏州市金鸡湖大道40号</v>
       </c>
       <c r="L5">
-        <v>10000001</v>
+        <v>10000003</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>A00004</v>
+      </c>
+      <c r="B6" t="str">
+        <v>东吴物业</v>
+      </c>
+      <c r="C6" t="str">
+        <v>623351210000282716</v>
+      </c>
+      <c r="D6" t="str">
+        <v>程敏丽</v>
+      </c>
+      <c r="E6" t="str">
+        <v>13616275825</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1234213327@qq.com</v>
+      </c>
+      <c r="G6" t="str">
+        <v>财务科主任</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <v>物业住房</v>
+      </c>
+      <c r="K6" t="str">
+        <v>江苏省苏州市金鸡湖大道41号</v>
+      </c>
+      <c r="L6">
+        <v>10000004</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>A00005</v>
+      </c>
+      <c r="B7" t="str">
+        <v>江苏水厂</v>
+      </c>
+      <c r="C7" t="str">
+        <v>623351210000282717</v>
+      </c>
+      <c r="D7" t="str">
+        <v>同泰鸿</v>
+      </c>
+      <c r="E7" t="str">
+        <v>13616275826</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1234213328@qq.com</v>
+      </c>
+      <c r="G7" t="str">
+        <v>财务科主任</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <v>水力</v>
+      </c>
+      <c r="K7" t="str">
+        <v>江苏省苏州市金鸡湖大道42号</v>
+      </c>
+      <c r="L7">
+        <v>10000005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="B8" t="str">
+        <v>本校教材教务中心</v>
+      </c>
+      <c r="C8" t="str">
+        <v>623351210000282718</v>
+      </c>
+      <c r="D8" t="str">
+        <v>刘璇</v>
+      </c>
+      <c r="E8" t="str">
+        <v>13616275827</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1234213329@qq.com</v>
+      </c>
+      <c r="G8" t="str">
+        <v>本校教材中心主任</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <v>教材</v>
+      </c>
+      <c r="K8" t="str">
+        <v>江苏省苏州市金鸡湖大道43号</v>
+      </c>
+      <c r="L8">
+        <v>10000006</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/corp_info.xlsx
+++ b/router/exportFiles/corp_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="user_info" sheetId="1" r:id="rId1"/>
+    <sheet name="corp_info" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -375,23 +375,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>供应商号</v>
+        <v>商户代码</v>
       </c>
       <c r="B1" t="str">
-        <v>供应商名称</v>
+        <v>商户名称</v>
       </c>
       <c r="C1" t="str">
-        <v>银行账户</v>
+        <v>商户银行账号</v>
       </c>
       <c r="D1" t="str">
-        <v>联系人</v>
+        <v>商户对账联系人</v>
       </c>
       <c r="E1" t="str">
         <v>联系人电话</v>
@@ -403,77 +403,83 @@
         <v>联系人备注</v>
       </c>
       <c r="H1" t="str">
-        <v>支付方式</v>
+        <v>结算类型</v>
       </c>
       <c r="I1" t="str">
-        <v>可否退款</v>
+        <v>是否支持退货</v>
       </c>
       <c r="J1" t="str">
-        <v>供应商类型</v>
+        <v>商户类型</v>
       </c>
       <c r="K1" t="str">
-        <v>供应商地址</v>
+        <v>集团编号</v>
       </c>
       <c r="L1" t="str">
-        <v>集团号</v>
+        <v>商户地址</v>
+      </c>
+      <c r="M1" t="str">
+        <v>状态</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>12345</v>
+        <v>A00001</v>
       </c>
       <c r="B2" t="str">
-        <v>MaYiJingFu</v>
+        <v>明光牛奶</v>
       </c>
       <c r="C2" t="str">
-        <v>622345162512433147</v>
+        <v>623351210000282713</v>
       </c>
       <c r="D2" t="str">
-        <v>LiuShuxuan</v>
+        <v>刘新华</v>
       </c>
       <c r="E2" t="str">
-        <v>13616275818</v>
+        <v>13616275822</v>
       </c>
       <c r="F2" t="str">
-        <v>1246780635@qq.com</v>
+        <v>1234213324@qq.com</v>
       </c>
       <c r="G2" t="str">
-        <v>Caiwuzongjian</v>
+        <v>财务科主任</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I2" t="str">
+        <v>否</v>
       </c>
       <c r="J2" t="str">
-        <v>jinrong</v>
+        <v>食品</v>
       </c>
       <c r="K2" t="str">
-        <v>Donghuan Street</v>
-      </c>
-      <c r="L2">
-        <v>12345678</v>
+        <v>江苏省苏州市金鸡湖大道38号</v>
+      </c>
+      <c r="L2" t="str">
+        <v>10000001</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>A00001</v>
+        <v>A00002</v>
       </c>
       <c r="B3" t="str">
-        <v>明光牛奶</v>
+        <v>美琳服饰</v>
       </c>
       <c r="C3" t="str">
-        <v>623351210000282713</v>
+        <v>623351210000282714</v>
       </c>
       <c r="D3" t="str">
-        <v>刘新华</v>
+        <v>权梦旋</v>
       </c>
       <c r="E3" t="str">
-        <v>13616275822</v>
+        <v>13616275823</v>
       </c>
       <c r="F3" t="str">
-        <v>1234213324@qq.com</v>
+        <v>1234213325@qq.com</v>
       </c>
       <c r="G3" t="str">
         <v>财务科主任</v>
@@ -481,37 +487,40 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" t="str">
+        <v>否</v>
       </c>
       <c r="J3" t="str">
-        <v>食品</v>
+        <v>服饰</v>
       </c>
       <c r="K3" t="str">
-        <v>江苏省苏州市金鸡湖大道38号</v>
-      </c>
-      <c r="L3">
-        <v>10000001</v>
+        <v>江苏省苏州市金鸡湖大道39号</v>
+      </c>
+      <c r="L3" t="str">
+        <v>10000002</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>A00002</v>
+        <v>A00003</v>
       </c>
       <c r="B4" t="str">
-        <v>美琳服饰</v>
+        <v>齐彤电力</v>
       </c>
       <c r="C4" t="str">
-        <v>623351210000282714</v>
+        <v>623351210000282715</v>
       </c>
       <c r="D4" t="str">
-        <v>权梦旋</v>
+        <v>段绿凝</v>
       </c>
       <c r="E4" t="str">
-        <v>13616275823</v>
+        <v>13616275824</v>
       </c>
       <c r="F4" t="str">
-        <v>1234213325@qq.com</v>
+        <v>1234213326@qq.com</v>
       </c>
       <c r="G4" t="str">
         <v>财务科主任</v>
@@ -519,37 +528,40 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="I4" t="str">
+        <v>否</v>
       </c>
       <c r="J4" t="str">
-        <v>服饰</v>
+        <v>电力</v>
       </c>
       <c r="K4" t="str">
-        <v>江苏省苏州市金鸡湖大道39号</v>
-      </c>
-      <c r="L4">
-        <v>10000002</v>
+        <v>江苏省苏州市金鸡湖大道40号</v>
+      </c>
+      <c r="L4" t="str">
+        <v>10000003</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A00003</v>
+        <v>A00004</v>
       </c>
       <c r="B5" t="str">
-        <v>齐彤电力</v>
+        <v>东吴物业</v>
       </c>
       <c r="C5" t="str">
-        <v>623351210000282715</v>
+        <v>623351210000282716</v>
       </c>
       <c r="D5" t="str">
-        <v>段绿凝</v>
+        <v>程敏丽</v>
       </c>
       <c r="E5" t="str">
-        <v>13616275824</v>
+        <v>13616275825</v>
       </c>
       <c r="F5" t="str">
-        <v>1234213326@qq.com</v>
+        <v>1234213327@qq.com</v>
       </c>
       <c r="G5" t="str">
         <v>财务科主任</v>
@@ -557,37 +569,40 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" t="str">
+        <v>否</v>
       </c>
       <c r="J5" t="str">
-        <v>电力</v>
+        <v>物业住房</v>
       </c>
       <c r="K5" t="str">
-        <v>江苏省苏州市金鸡湖大道40号</v>
-      </c>
-      <c r="L5">
-        <v>10000003</v>
+        <v>江苏省苏州市金鸡湖大道41号</v>
+      </c>
+      <c r="L5" t="str">
+        <v>10000004</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>A00004</v>
+        <v>A00005</v>
       </c>
       <c r="B6" t="str">
-        <v>东吴物业</v>
+        <v>江苏水厂</v>
       </c>
       <c r="C6" t="str">
-        <v>623351210000282716</v>
+        <v>623351210000282717</v>
       </c>
       <c r="D6" t="str">
-        <v>程敏丽</v>
+        <v>同泰鸿</v>
       </c>
       <c r="E6" t="str">
-        <v>13616275825</v>
+        <v>13616275826</v>
       </c>
       <c r="F6" t="str">
-        <v>1234213327@qq.com</v>
+        <v>1234213328@qq.com</v>
       </c>
       <c r="G6" t="str">
         <v>财务科主任</v>
@@ -595,98 +610,66 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="I6" t="str">
+        <v>否</v>
       </c>
       <c r="J6" t="str">
-        <v>物业住房</v>
+        <v>水力</v>
       </c>
       <c r="K6" t="str">
-        <v>江苏省苏州市金鸡湖大道41号</v>
-      </c>
-      <c r="L6">
-        <v>10000004</v>
+        <v>江苏省苏州市金鸡湖大道42号</v>
+      </c>
+      <c r="L6" t="str">
+        <v>10000005</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>A00005</v>
+        <v>A00006</v>
       </c>
       <c r="B7" t="str">
-        <v>江苏水厂</v>
+        <v>本校教材教务中心</v>
       </c>
       <c r="C7" t="str">
-        <v>623351210000282717</v>
+        <v>623351210000282718</v>
       </c>
       <c r="D7" t="str">
-        <v>同泰鸿</v>
+        <v>刘璇</v>
       </c>
       <c r="E7" t="str">
-        <v>13616275826</v>
+        <v>13616275827</v>
       </c>
       <c r="F7" t="str">
-        <v>1234213328@qq.com</v>
+        <v>1234213329@qq.com</v>
       </c>
       <c r="G7" t="str">
-        <v>财务科主任</v>
+        <v>本校教材中心主任</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="I7" t="str">
+        <v>否</v>
       </c>
       <c r="J7" t="str">
-        <v>水力</v>
+        <v>教材</v>
       </c>
       <c r="K7" t="str">
-        <v>江苏省苏州市金鸡湖大道42号</v>
-      </c>
-      <c r="L7">
-        <v>10000005</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>A00006</v>
-      </c>
-      <c r="B8" t="str">
-        <v>本校教材教务中心</v>
-      </c>
-      <c r="C8" t="str">
-        <v>623351210000282718</v>
-      </c>
-      <c r="D8" t="str">
-        <v>刘璇</v>
-      </c>
-      <c r="E8" t="str">
-        <v>13616275827</v>
-      </c>
-      <c r="F8" t="str">
-        <v>1234213329@qq.com</v>
-      </c>
-      <c r="G8" t="str">
-        <v>本校教材中心主任</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <v>教材</v>
-      </c>
-      <c r="K8" t="str">
         <v>江苏省苏州市金鸡湖大道43号</v>
       </c>
-      <c r="L8">
+      <c r="L7" t="str">
         <v>10000006</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/corp_info.xlsx
+++ b/router/exportFiles/corp_info.xlsx
@@ -500,7 +500,7 @@
         <v>10000002</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +623,7 @@
         <v>10000005</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>10000006</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
